--- a/Data Files/table6.xlsx
+++ b/Data Files/table6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiwo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiwo\OneDrive\Desktop\PREWORK_TO\Module 16\Project2\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136E4F5-5E14-4002-873A-2B64466E970F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920040D0-B2B7-4A1B-BF5B-CAC34DEF60CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
